--- a/informe/tables/parameters_clustering_spectral.xlsx
+++ b/informe/tables/parameters_clustering_spectral.xlsx
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.189993381500244</v>
+        <v>1.050916433334351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06021371914539492</v>
+        <v>0.1363666485319279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001723909378051758</v>
+        <v>0.002201128005981445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007420964866804784</v>
+        <v>0.0003995663333427729</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -765,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.06498908996582</v>
+        <v>0.5796299934387207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2961141218966637</v>
+        <v>0.3659639916292487</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001440715789794922</v>
+        <v>0.001799726486206055</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001145059414752437</v>
+        <v>0.001326172965269675</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -850,16 +850,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5405192852020264</v>
+        <v>0.159600830078125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05151219216852978</v>
+        <v>0.034267024275535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000600433349609375</v>
+        <v>0.0002001762390136719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0004902519238977213</v>
+        <v>0.0004003524780273438</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -935,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5010222911834716</v>
+        <v>0.117800760269165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02292525286648687</v>
+        <v>0.02524585988024932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003240108489990234</v>
+        <v>0.0007996082305908204</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004146949988955008</v>
+        <v>0.0003998065429803516</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1020,16 +1020,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4726695060729981</v>
+        <v>0.1056037425994873</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005922101191933215</v>
+        <v>0.01098936839120147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002597808837890625</v>
+        <v>0.0005932331085205078</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000387938301241961</v>
+        <v>0.000484528321736359</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1105,16 +1105,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4487752437591553</v>
+        <v>0.1126004695892334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04221802096756276</v>
+        <v>0.008569145396600237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003930091857910156</v>
+        <v>0.000399923324584961</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004814760015061456</v>
+        <v>0.0004898040465379741</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>

--- a/informe/tables/parameters_clustering_spectral.xlsx
+++ b/informe/tables/parameters_clustering_spectral.xlsx
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.050916433334351</v>
+        <v>0.7694012641906738</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1363666485319279</v>
+        <v>0.03954567083893255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002201128005981445</v>
+        <v>0.002601385116577148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003995663333427729</v>
+        <v>0.0007982874262832993</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -765,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5796299934387207</v>
+        <v>0.4968008518218994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3659639916292487</v>
+        <v>0.3247853988843187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001799726486206055</v>
+        <v>0.00200052261352539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001326172965269675</v>
+        <v>0.001414314423951057</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -850,16 +850,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.159600830078125</v>
+        <v>0.1253995418548584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.034267024275535</v>
+        <v>0.008452850579641747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002001762390136719</v>
+        <v>0.000400543212890625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0004003524780273438</v>
+        <v>0.0004905634543312666</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -935,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117800760269165</v>
+        <v>0.09020109176635742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02524585988024932</v>
+        <v>0.0161535018542311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0007996082305908204</v>
+        <v>0.000800180435180664</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003998065429803516</v>
+        <v>0.0004000910238736721</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1020,16 +1020,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1056037425994873</v>
+        <v>0.09359941482543946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01098936839120147</v>
+        <v>0.01098442571281883</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005932331085205078</v>
+        <v>0.0007998466491699219</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000484528321736359</v>
+        <v>0.0007481880649769047</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1105,16 +1105,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1126004695892334</v>
+        <v>0.08039746284484864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008569145396600237</v>
+        <v>0.008380428062685991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000399923324584961</v>
+        <v>0.00019989013671875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004898040465379741</v>
+        <v>0.0003997802734375</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
